--- a/Antidepressants_Ingredients.xlsx
+++ b/Antidepressants_Ingredients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\opiod_list\opioid_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6410930-498C-42B9-A571-0CB530CED6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3D722-741E-4AB1-B123-4869FA758521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="-9120" windowWidth="19185" windowHeight="8325" xr2:uid="{023290EC-AE7E-4C1C-A212-2DC67C6D49C3}"/>
+    <workbookView xWindow="22650" yWindow="-13965" windowWidth="20490" windowHeight="12180" xr2:uid="{023290EC-AE7E-4C1C-A212-2DC67C6D49C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>5-hydroxytryptophan</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>St.+John's+wort+extract</t>
+  </si>
+  <si>
+    <t>sertraline </t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F0D47-063B-4DBC-AB33-B98CDAF0D9BD}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,65 +798,73 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A58">
+    <sortCondition ref="A40:A58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>